--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +411,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +419,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +443,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +491,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -531,7 +531,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +539,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
@@ -547,7 +547,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -660,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -708,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -764,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -772,7 +772,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -796,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
@@ -804,7 +804,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -812,7 +812,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
@@ -820,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -828,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -836,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -860,7 +860,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -917,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -925,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -941,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -957,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -965,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -997,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1005,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -1013,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -1029,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -1037,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -1045,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -1053,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -1061,7 +1061,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
@@ -1069,7 +1069,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -1077,7 +1077,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1085,7 +1085,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
@@ -1093,7 +1093,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -1101,7 +1101,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -1109,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -1117,7 +1117,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
@@ -1125,7 +1125,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -1133,7 +1133,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -1262,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -1286,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -1302,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -1310,7 +1310,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -1318,7 +1318,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -1326,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22">
@@ -1334,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
@@ -1342,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -1350,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
@@ -1358,7 +1358,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -1366,7 +1366,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -1374,7 +1374,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -1398,7 +1398,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -1406,7 +1406,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1463,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -1479,7 +1479,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1487,7 +1487,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -1511,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -1519,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -1535,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -1543,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -1551,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -1559,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1567,7 +1567,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -1575,7 +1575,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -1583,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -1591,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
@@ -1599,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -1607,7 +1607,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -1615,7 +1615,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1623,7 +1623,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -1631,7 +1631,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -1639,7 +1639,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -1647,7 +1647,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -1671,7 +1671,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1712,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1720,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -1728,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1736,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1744,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1752,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1768,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -1776,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1800,7 +1800,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -1808,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1816,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1824,7 +1824,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -1840,7 +1840,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1848,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -1856,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -1864,7 +1864,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1872,7 +1872,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -1880,7 +1880,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1912,7 +1912,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -1920,7 +1920,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -1928,7 +1928,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1936,7 +1936,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,241 +376,409 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B52">
         <v>130</v>
       </c>
     </row>
@@ -621,7 +789,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -641,241 +809,409 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B52">
         <v>130</v>
       </c>
     </row>
@@ -886,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -906,242 +1242,410 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>124</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>130</v>
+      <c r="B52">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1655,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1171,241 +1675,409 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B52">
         <v>130</v>
       </c>
     </row>
@@ -1416,7 +2088,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1436,242 +2108,410 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>118</v>
+      <c r="B52">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +2521,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1701,242 +2541,410 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>111</v>
+      <c r="B52">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,409 +376,249 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
         <v>130</v>
       </c>
     </row>
@@ -789,7 +629,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -809,409 +649,249 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
         <v>130</v>
       </c>
     </row>
@@ -1222,7 +902,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1242,409 +922,249 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
         <v>126</v>
       </c>
     </row>
@@ -1655,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1675,409 +1195,249 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
         <v>130</v>
       </c>
     </row>
@@ -2088,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2108,409 +1468,249 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>69</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
         <v>119</v>
       </c>
     </row>
@@ -2521,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2541,409 +1741,249 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>67</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>68</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
         <v>127</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +419,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +435,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +443,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +483,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +499,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +515,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +531,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +539,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -547,7 +547,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -555,7 +555,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
@@ -563,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -676,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -700,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -724,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -764,7 +764,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -812,7 +812,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -820,7 +820,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -828,7 +828,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +836,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -852,7 +852,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -860,7 +860,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
@@ -868,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -876,7 +876,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -965,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -973,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -981,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -997,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -1029,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -1053,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -1061,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -1069,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1077,7 +1077,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1085,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1157,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1214,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1222,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1230,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1246,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1262,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1270,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1286,7 +1286,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -1294,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -1302,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1310,7 +1310,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -1318,7 +1318,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -1326,7 +1326,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -1334,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -1342,7 +1342,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -1350,7 +1350,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1358,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -1366,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -1374,7 +1374,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1382,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -1390,7 +1390,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -1398,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -1406,7 +1406,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -1414,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -1422,7 +1422,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -1430,7 +1430,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1438,7 +1438,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -1495,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1503,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -1527,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -1535,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -1655,7 +1655,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -1663,7 +1663,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -1679,7 +1679,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1687,7 +1687,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1695,7 +1695,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -1711,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1776,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1792,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -1808,7 +1808,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -1816,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1824,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -1832,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -1840,7 +1840,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -1848,7 +1848,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -1872,7 +1872,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -1880,7 +1880,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -1888,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -1896,7 +1896,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -1904,7 +1904,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -1912,7 +1912,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -1920,7 +1920,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -1928,7 +1928,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -1936,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1944,7 +1944,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1952,7 +1952,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -1968,7 +1968,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1976,7 +1976,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -1984,7 +1984,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
